--- a/Documents/IPA.xlsx
+++ b/Documents/IPA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BAAE86D-6504-496E-9986-2DCDFFB9C23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE277A7-5ED5-4690-99F3-7CA039E469D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D47B65B7-3C49-4717-B51E-C73DB83DB001}"/>
+    <workbookView xWindow="6945" yWindow="0" windowWidth="16050" windowHeight="15585" activeTab="1" xr2:uid="{D47B65B7-3C49-4717-B51E-C73DB83DB001}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="1" r:id="rId1"/>
@@ -15083,10 +15083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6471A04-BF28-4C0C-BD4A-CC62054AA1F8}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.25"/>
@@ -15111,18 +15111,18 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
-        <v>596</v>
+        <v>660</v>
       </c>
       <c r="D3" s="8" t="str">
         <f>_xlfn.UNICHAR(C3)</f>
-        <v>ɔ</v>
+        <v>ʔ</v>
       </c>
       <c r="F3" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
         <v>ã</v>
       </c>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G8" si="0" xml:space="preserve"> _xlfn.CONCAT(F3, _xlfn.UNICHAR(660))</f>
+        <f t="shared" ref="G3:G9" si="0" xml:space="preserve"> _xlfn.CONCAT(F3, _xlfn.UNICHAR(660))</f>
         <v>ãʔ</v>
       </c>
       <c r="H3" s="8" t="str">
@@ -15135,6 +15135,13 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="8">
+        <v>596</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>_xlfn.UNICHAR(C4)</f>
+        <v>ɔ</v>
+      </c>
       <c r="F4" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("i", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
         <v>ĩ</v>
@@ -15153,6 +15160,13 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
+        <v>601</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>_xlfn.UNICHAR(C5)</f>
+        <v>ə</v>
+      </c>
       <c r="F5" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("u", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
         <v>ũ</v>
@@ -15163,16 +15177,12 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>256</v>
-      </c>
       <c r="C6" s="8">
-        <f xml:space="preserve"> HEX2DEC(B6)</f>
-        <v>771</v>
+        <v>331</v>
       </c>
       <c r="D6" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(C6))</f>
-        <v>ã</v>
+        <f>_xlfn.UNICHAR(C6)</f>
+        <v>ŋ</v>
       </c>
       <c r="F6" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(_xlfn.UNICHAR(603), _xlfn.UNICHAR(HEX2DEC("0303")))</f>
@@ -15184,13 +15194,6 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="8">
-        <v>331</v>
-      </c>
-      <c r="D7" s="8" t="str">
-        <f>_xlfn.UNICHAR(C7)</f>
-        <v>ŋ</v>
-      </c>
       <c r="F7" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("e", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
         <v>ẽ</v>
@@ -15202,7 +15205,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F8" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($D$3, _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, _xlfn.UNICHAR(HEX2DEC("0303")))</f>
         <v>ɔ̃</v>
       </c>
       <c r="G8" s="8" t="str">
@@ -15210,151 +15213,194 @@
         <v>ɔ̃ʔ</v>
       </c>
     </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>õ</v>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>õʔ</v>
+      </c>
+    </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ai", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>aĩ</v>
-      </c>
-      <c r="G10" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F10, _xlfn.UNICHAR(660))</f>
-        <v>aĩʔ</v>
+      <c r="B10" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="8">
+        <f xml:space="preserve"> HEX2DEC(B10)</f>
+        <v>771</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(C10))</f>
+        <v>ã</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F11" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ai", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>aĩ</v>
+      </c>
+      <c r="G11" s="10" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F11, _xlfn.UNICHAR(660))</f>
+        <v>aĩʔ</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC("0303")), "u")</f>
         <v>ãu</v>
       </c>
-      <c r="G11" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F11, _xlfn.UNICHAR(660))</f>
+      <c r="G12" s="10" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F12, _xlfn.UNICHAR(660))</f>
         <v>ãuʔ</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("io", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>iõ</v>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F13, _xlfn.UNICHAR(660))</f>
-        <v>iõʔ</v>
-      </c>
-      <c r="H13" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("io")</f>
-        <v>io</v>
-      </c>
-      <c r="I13" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(H13, _xlfn.UNICHAR(660))</f>
-        <v>ioʔ</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F14" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("i", _xlfn.UNICHAR(596), _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>iɔ̃</v>
+        <f xml:space="preserve"> _xlfn.CONCAT("io", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>iõ</v>
       </c>
       <c r="G14" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(F14, _xlfn.UNICHAR(660))</f>
-        <v>iɔ̃ʔ</v>
+        <v>iõʔ</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("io")</f>
+        <v>io</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H14, _xlfn.UNICHAR(660))</f>
+        <v>ioʔ</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F15" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("iu", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>iũ</v>
-      </c>
-      <c r="G15" s="10" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i", _xlfn.UNICHAR(596), _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>iɔ̃</v>
+      </c>
+      <c r="G15" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(F15, _xlfn.UNICHAR(660))</f>
-        <v>iũʔ</v>
+        <v>iɔ̃ʔ</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F16" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ia", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>iã</v>
+        <f xml:space="preserve"> _xlfn.CONCAT("iu", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>iũ</v>
       </c>
       <c r="G16" s="10" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(F16, _xlfn.UNICHAR(660))</f>
-        <v>iãʔ</v>
+        <v>iũʔ</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ia", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>iã</v>
+      </c>
+      <c r="G17" s="10" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F17, _xlfn.UNICHAR(660))</f>
+        <v>iãʔ</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ia", _xlfn.UNICHAR(HEX2DEC("0303")), "u")</f>
         <v>iãu</v>
       </c>
-      <c r="G17" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F17, _xlfn.UNICHAR(660))</f>
+      <c r="G18" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F18, _xlfn.UNICHAR(660))</f>
         <v>iãuʔ</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ia", $D$6)</f>
+        <v>iaŋ</v>
+      </c>
+      <c r="G19" s="10" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F19, _xlfn.UNICHAR(660))</f>
+        <v>iaŋʔ</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ou", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
         <v>oũ</v>
       </c>
-      <c r="G19" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F19, _xlfn.UNICHAR(660))</f>
+      <c r="G21" s="10" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F21, _xlfn.UNICHAR(660))</f>
         <v>oũʔ</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($D$3, "m")</f>
-        <v>ɔm</v>
-      </c>
-      <c r="G20" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($D$3, "p")</f>
-        <v>ɔp</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ui", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>uĩ</v>
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "m")</f>
+        <v>ɔm</v>
       </c>
       <c r="G22" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F22, _xlfn.UNICHAR(660))</f>
-        <v>uĩʔ</v>
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "p")</f>
+        <v>ɔp</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ua", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>uã</v>
-      </c>
-      <c r="G23" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F23, _xlfn.UNICHAR(660))</f>
-        <v>uãʔ</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ua", D7)</f>
-        <v>uaŋ</v>
-      </c>
-      <c r="G24" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ua", "k")</f>
-        <v>uak</v>
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, $D$6)</f>
+        <v>ɔŋ</v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "k")</f>
+        <v>ɔk</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ua", _xlfn.UNICHAR(HEX2DEC("0303")), "i")</f>
-        <v>uãi</v>
+        <f xml:space="preserve"> _xlfn.CONCAT("ui", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>uĩ</v>
       </c>
       <c r="G25" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(F25, _xlfn.UNICHAR(660))</f>
-        <v>uãiʔ</v>
+        <v>uĩʔ</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ua", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>uã</v>
+      </c>
+      <c r="G26" s="10" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F26, _xlfn.UNICHAR(660))</f>
+        <v>uãʔ</v>
+      </c>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ua", D6)</f>
+        <v>uaŋ</v>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ua", "k")</f>
+        <v>uak</v>
+      </c>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F28" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ua", _xlfn.UNICHAR(HEX2DEC("0303")), "i")</f>
+        <v>uãi</v>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F28, _xlfn.UNICHAR(660))</f>
+        <v>uãiʔ</v>
+      </c>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="8" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT("ue", _xlfn.UNICHAR(HEX2DEC("0303")), "i")</f>
         <v>uẽi</v>
       </c>
-      <c r="G26" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F26, _xlfn.UNICHAR(660))</f>
+      <c r="G29" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F29, _xlfn.UNICHAR(660))</f>
         <v>uẽiʔ</v>
       </c>
     </row>

--- a/Documents/IPA.xlsx
+++ b/Documents/IPA.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE277A7-5ED5-4690-99F3-7CA039E469D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7158CF-A4BB-4767-9D3E-19E27612F010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="0" windowWidth="16050" windowHeight="15585" activeTab="1" xr2:uid="{D47B65B7-3C49-4717-B51E-C73DB83DB001}"/>
+    <workbookView xWindow="6945" yWindow="0" windowWidth="21420" windowHeight="15585" xr2:uid="{D47B65B7-3C49-4717-B51E-C73DB83DB001}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表2" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表4" sheetId="3" r:id="rId2"/>
-    <sheet name="Spacing diacritics and supraseg" sheetId="2" r:id="rId3"/>
+    <sheet name="用例" sheetId="3" r:id="rId1"/>
+    <sheet name="台語注音 IPA 常用附加符號表" sheetId="4" r:id="rId2"/>
+    <sheet name="字母" sheetId="1" r:id="rId3"/>
+    <sheet name="Spacing diacritics and supraseg" sheetId="2" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="十五音韻母">'[1]十五音-韻母'!$C$5:$C$54</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="325">
   <si>
     <t>retroflex click</t>
   </si>
@@ -835,23 +836,244 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unicode</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◌</t>
+  </si>
+  <si>
+    <t>符號</t>
+  </si>
+  <si>
+    <t>名稱 (Unicode Name)</t>
+  </si>
+  <si>
+    <t>編碼 (Hex)</t>
+  </si>
+  <si>
+    <t>十進位 (Dec)</t>
+  </si>
+  <si>
+    <t>說明</t>
+  </si>
+  <si>
+    <t>◌́</t>
+  </si>
+  <si>
+    <t>Combining Acute Accent</t>
+  </si>
+  <si>
+    <t>U+0301</t>
+  </si>
+  <si>
+    <t>陽平調，台語標音「á」</t>
+  </si>
+  <si>
+    <t>◌̀</t>
+  </si>
+  <si>
+    <t>Combining Grave Accent</t>
+  </si>
+  <si>
+    <t>U+0300</t>
+  </si>
+  <si>
+    <t>陰去調，台語標音「à」</t>
+  </si>
+  <si>
+    <t>◌̂</t>
+  </si>
+  <si>
+    <t>Combining Circumflex Accent</t>
+  </si>
+  <si>
+    <t>U+0302</t>
+  </si>
+  <si>
+    <t>表長音或特殊調類</t>
+  </si>
+  <si>
+    <t>◌̌</t>
+  </si>
+  <si>
+    <t>U+030C</t>
+  </si>
+  <si>
+    <t>升調，例「ǎ」</t>
+  </si>
+  <si>
+    <t>◌̍</t>
+  </si>
+  <si>
+    <t>Combining Vertical Line Above</t>
+  </si>
+  <si>
+    <t>U+030D</t>
+  </si>
+  <si>
+    <t>台語「入聲」註記，例「a̍」</t>
+  </si>
+  <si>
+    <t>◌̈</t>
+  </si>
+  <si>
+    <t>Combining Diaeresis</t>
+  </si>
+  <si>
+    <t>U+0308</t>
+  </si>
+  <si>
+    <t>表區分母音，例「ä」</t>
+  </si>
+  <si>
+    <t>◌̄</t>
+  </si>
+  <si>
+    <t>Combining Macron</t>
+  </si>
+  <si>
+    <t>U+0304</t>
+  </si>
+  <si>
+    <t>陰平調，例「ā」</t>
+  </si>
+  <si>
+    <t>◌̃</t>
+  </si>
+  <si>
+    <t>Combining Tilde</t>
+  </si>
+  <si>
+    <t>U+0303</t>
+  </si>
+  <si>
+    <t>鼻化母音，例「ã」</t>
+  </si>
+  <si>
+    <t>◌̇</t>
+  </si>
+  <si>
+    <t>Combining Dot Above</t>
+  </si>
+  <si>
+    <t>U+0307</t>
+  </si>
+  <si>
+    <t>台語拼音「o͘」的「點」，例「ȯ」</t>
+  </si>
+  <si>
+    <t>◌̤</t>
+  </si>
+  <si>
+    <t>Combining Diaeresis Below</t>
+  </si>
+  <si>
+    <t>U+0324</t>
+  </si>
+  <si>
+    <t>有時用於特殊變音</t>
+  </si>
+  <si>
+    <t>ⁿ</t>
+  </si>
+  <si>
+    <t>Modifier Letter Small N</t>
+  </si>
+  <si>
+    <t>U+207F</t>
+  </si>
+  <si>
+    <t>ˊ</t>
+  </si>
+  <si>
+    <t>Modifier Letter Acute Accent</t>
+  </si>
+  <si>
+    <t>U+02CA</t>
+  </si>
+  <si>
+    <t>注音聲調二聲「ˊ」</t>
+  </si>
+  <si>
+    <t>ˇ</t>
+  </si>
+  <si>
+    <t>Caron (單獨字元)</t>
+  </si>
+  <si>
+    <t>U+02C7</t>
+  </si>
+  <si>
+    <t>注音聲調三聲「ˇ」</t>
+  </si>
+  <si>
+    <t>ˋ</t>
+  </si>
+  <si>
+    <t>Modifier Letter Grave Accent</t>
+  </si>
+  <si>
+    <t>U+02CB</t>
+  </si>
+  <si>
+    <t>注音聲調四聲「ˋ」</t>
+  </si>
+  <si>
+    <t>˙</t>
+  </si>
+  <si>
+    <t>Modifier Letter Dot Above</t>
+  </si>
+  <si>
+    <t>U+02D9</t>
+  </si>
+  <si>
+    <t>注音輕聲符號「˙」</t>
+  </si>
+  <si>
+    <r>
+      <t>Combining Caron (Háč</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ek)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>鼻化標記 (台語拼音「ⁿ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」)</t>
+    </r>
+  </si>
+  <si>
+    <t>ㄚ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -912,6 +1134,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -953,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,9 +1193,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -981,11 +1207,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13427,11 +13668,751 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6471A04-BF28-4C0C-BD4A-CC62054AA1F8}">
+  <dimension ref="B2:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="7" customWidth="1"/>
+    <col min="2" max="4" width="19.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="7" customWidth="1"/>
+    <col min="6" max="9" width="11.625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="7">
+        <v>660</v>
+      </c>
+      <c r="D3" s="7" t="str">
+        <f>_xlfn.UNICHAR(C3)</f>
+        <v>ʔ</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>ã</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f t="shared" ref="G3:I10" si="0" xml:space="preserve"> _xlfn.CONCAT(F3, _xlfn.UNICHAR(660))</f>
+        <v>ãʔ</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a")</f>
+        <v>a</v>
+      </c>
+      <c r="I3" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H3, _xlfn.UNICHAR(660))</f>
+        <v>aʔ</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="7">
+        <v>596</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>_xlfn.UNICHAR(C4)</f>
+        <v>ɔ</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="7">
+        <v>601</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f>_xlfn.UNICHAR(C5)</f>
+        <v>ə</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>ĩ</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ĩʔ</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i")</f>
+        <v>i</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H5, _xlfn.UNICHAR(660))</f>
+        <v>iʔ</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>331</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>_xlfn.UNICHAR(C6)</f>
+        <v>ŋ</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("u", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>ũ</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ũʔ</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>751</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>_xlfn.UNICHAR(C7)</f>
+        <v>˯</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(_xlfn.UNICHAR(603), _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>ɛ̃</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ɛ̃ʔ</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="str">
+        <f>_xlfn.UNICHAR(C9)</f>
+        <v>̍</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("e", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>ẽ</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ẽʔ</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>781</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(C9))</f>
+        <v>a̍</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>ɔ̃</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ɔ̃ʔ</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>771</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(C10))</f>
+        <v>ã</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>õ</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>õʔ</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($D$13, _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>ȯ̃</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ȯ̃ʔ</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>729</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(C11))</f>
+        <v>a˙</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ai", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>aĩ</v>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F12, _xlfn.UNICHAR(660))</f>
+        <v>aĩʔ</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>775</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("o", _xlfn.UNICHAR(C13))</f>
+        <v>ȯ</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC("0303")), "u")</f>
+        <v>ãu</v>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F13, _xlfn.UNICHAR(660))</f>
+        <v>ãuʔ</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>8319</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>_xlfn.UNICHAR(C14)</f>
+        <v>ⁿ</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("a", $D$6)</f>
+        <v>aŋ</v>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F14, _xlfn.UNICHAR(660))</f>
+        <v>aŋʔ</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($D$13,D14)</f>
+        <v>ȯⁿ</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i", $D$15)</f>
+        <v>iȯⁿ</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("io", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>iõ</v>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F16, _xlfn.UNICHAR(660))</f>
+        <v>iõʔ</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("io")</f>
+        <v>io</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H16, _xlfn.UNICHAR(660))</f>
+        <v>ioʔ</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i", _xlfn.UNICHAR(596))</f>
+        <v>iɔ</v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F17, _xlfn.UNICHAR(660))</f>
+        <v>iɔʔ</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i", _xlfn.UNICHAR(596), _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>iɔ̃</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(H17, _xlfn.UNICHAR(660))</f>
+        <v>iɔ̃ʔ</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("iu", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>iũ</v>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F18, _xlfn.UNICHAR(660))</f>
+        <v>iũʔ</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ia", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>iã</v>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F19, _xlfn.UNICHAR(660))</f>
+        <v>iãʔ</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ia", _xlfn.UNICHAR(HEX2DEC("0303")), "u")</f>
+        <v>iãu</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F20, _xlfn.UNICHAR(660))</f>
+        <v>iãuʔ</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f>_xlfn.CONCAT($D$20, _xlfn.UNICHAR(729))</f>
+        <v>◌˙</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i", $D$5, $D$6)</f>
+        <v>iəŋ</v>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i", $D$5, "k")</f>
+        <v>iək</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="str">
+        <f>_xlfn.CONCAT("o", _xlfn.UNICHAR(712))</f>
+        <v>oˈ</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ia", $D$6)</f>
+        <v>iaŋ</v>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F22, _xlfn.UNICHAR(660))</f>
+        <v>iaŋʔ</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C21,D21)</f>
+        <v>ㄚ◌˙</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i", $D$4, $D$6)</f>
+        <v>iɔŋ</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("i",$D$4, "k")</f>
+        <v>iɔk</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC("0303")), "u")</f>
+        <v>õu</v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F25, _xlfn.UNICHAR(660))</f>
+        <v>õuʔ</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "m")</f>
+        <v>ɔm</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "p")</f>
+        <v>ɔp</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, $D$6)</f>
+        <v>ɔŋ</v>
+      </c>
+      <c r="G28" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "k")</f>
+        <v>ɔk</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ui", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>uĩ</v>
+      </c>
+      <c r="G30" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F30, _xlfn.UNICHAR(660))</f>
+        <v>uĩʔ</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ua", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
+        <v>uã</v>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F31, _xlfn.UNICHAR(660))</f>
+        <v>uãʔ</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ua", D6)</f>
+        <v>uaŋ</v>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ua", "k")</f>
+        <v>uak</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ua", _xlfn.UNICHAR(HEX2DEC("0303")), "i")</f>
+        <v>uãi</v>
+      </c>
+      <c r="G33" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F33, _xlfn.UNICHAR(660))</f>
+        <v>uãiʔ</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT("ue", _xlfn.UNICHAR(HEX2DEC("0303")), "i")</f>
+        <v>uẽi</v>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F34, _xlfn.UNICHAR(660))</f>
+        <v>uẽiʔ</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B696AF4B-4C7F-4FCC-A33B-FEDE43D20760}">
+  <dimension ref="B4:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="32.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="1">
+        <v>769</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="1">
+        <v>768</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="1">
+        <v>770</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" s="1">
+        <v>780</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" s="1">
+        <v>781</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="1">
+        <v>776</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="1">
+        <v>772</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="1">
+        <v>771</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="1">
+        <v>775</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="1">
+        <v>804</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8319</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="1">
+        <v>714</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="1">
+        <v>711</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="1">
+        <v>715</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" s="1">
+        <v>729</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761E074-B54C-4EF7-86C4-71BB4A6D6728}">
   <dimension ref="B2:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="32.25" x14ac:dyDescent="0.25"/>
@@ -13443,34 +14424,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>593</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="12">
         <v>251</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="F3" s="10"/>
+      <c r="G3" s="13" t="str">
         <f t="shared" ref="G3:G13" si="0">_xlfn.UNICHAR(C3)</f>
         <v>ɑ</v>
       </c>
@@ -13484,19 +14467,20 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>592</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="12">
         <v>250</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="F4" s="10"/>
+      <c r="G4" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ɐ</v>
       </c>
@@ -13510,38 +14494,40 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>594</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="12">
         <v>252</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="F5" s="10"/>
+      <c r="G5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ɒ</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="12">
         <v>230</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="F6" s="10"/>
+      <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>æ</v>
       </c>
@@ -13555,38 +14541,40 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="12">
         <v>595</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="12">
         <v>253</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="F7" s="10"/>
+      <c r="G7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ɓ</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="12">
         <v>665</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="12">
         <v>299</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="F8" s="10"/>
+      <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ʙ</v>
       </c>
@@ -13600,19 +14588,20 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="12">
         <v>946</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="F9" s="10"/>
+      <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>β</v>
       </c>
@@ -13626,169 +14615,178 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="12">
         <v>596</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="12">
         <v>254</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="F10" s="10"/>
+      <c r="G10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ɔ</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="12">
         <v>597</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="12">
         <v>255</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="F11" s="10"/>
+      <c r="G11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ɕ</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="12">
         <v>231</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="14">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="F12" s="10"/>
+      <c r="G12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ç</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="12">
         <v>599</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="12">
         <v>257</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="F13" s="10"/>
+      <c r="G13" s="13" t="str">
         <f t="shared" si="0"/>
         <v>ɗ</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="12">
         <v>598</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="12">
         <v>256</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="F14" s="10"/>
+      <c r="G14" s="13" t="str">
         <f t="shared" ref="G14:G17" si="1">_xlfn.UNICHAR(C14)</f>
         <v>ɖ</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="12">
         <v>240</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="F15" s="10"/>
+      <c r="G15" s="13" t="str">
         <f t="shared" si="1"/>
         <v>ð</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="12">
         <v>676</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="F16" s="10"/>
+      <c r="G16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>ʤ</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="12">
         <v>601</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="12">
         <v>259</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="2" t="str">
+      <c r="F17" s="10"/>
+      <c r="G17" s="13" t="str">
         <f t="shared" si="1"/>
         <v>ə</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="12">
         <v>600</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="12">
         <v>258</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G18" s="2" t="str">
+      <c r="F18" s="10"/>
+      <c r="G18" s="13" t="str">
         <f>_xlfn.UNICHAR(C18)</f>
         <v>ɘ</v>
       </c>
@@ -13798,1279 +14796,1350 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="12">
         <v>602</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="2" t="str">
+      <c r="F19" s="10"/>
+      <c r="G19" s="13" t="str">
         <f t="shared" ref="G19:G82" si="2">_xlfn.UNICHAR(C19)</f>
         <v>ɚ</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="12">
         <v>603</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="F20" s="10"/>
+      <c r="G20" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɛ</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="12">
         <v>604</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="2" t="str">
+      <c r="F21" s="10"/>
+      <c r="G21" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɜ</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="12">
         <v>605</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="2" t="str">
+      <c r="F22" s="10"/>
+      <c r="G22" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɝ</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="12">
         <v>606</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="2" t="str">
+      <c r="F23" s="10"/>
+      <c r="G23" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɞ</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="12">
         <v>607</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="2" t="str">
+      <c r="F24" s="10"/>
+      <c r="G24" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɟ</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="12">
         <v>644</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="12">
         <v>284</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="2" t="str">
+      <c r="F25" s="10"/>
+      <c r="G25" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʄ</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="12">
         <v>609</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="12">
         <v>261</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G26" s="2" t="str">
+      <c r="F26" s="10"/>
+      <c r="G26" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɡ</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="12">
         <v>608</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="12">
         <v>260</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="2" t="str">
+      <c r="F27" s="10"/>
+      <c r="G27" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɠ</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="12">
         <v>610</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="12">
         <v>262</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G28" s="2" t="str">
+      <c r="F28" s="10"/>
+      <c r="G28" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɢ</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="12">
         <v>667</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="F29" s="10"/>
+      <c r="G29" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʛ</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="12">
         <v>614</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="12">
         <v>266</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="2" t="str">
+      <c r="F30" s="10"/>
+      <c r="G30" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɦ</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="12">
         <v>615</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="12">
         <v>267</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G31" s="2" t="str">
+      <c r="F31" s="10"/>
+      <c r="G31" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɧ</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="12">
         <v>295</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="12">
         <v>127</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="2" t="str">
+      <c r="F32" s="10"/>
+      <c r="G32" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ħ</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="12">
         <v>613</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="12">
         <v>265</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="2" t="str">
+      <c r="F33" s="10"/>
+      <c r="G33" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɥ</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="12">
         <v>668</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="2" t="str">
+      <c r="F34" s="10"/>
+      <c r="G34" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʜ</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="12">
         <v>616</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="12">
         <v>268</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="2" t="str">
+      <c r="F35" s="10"/>
+      <c r="G35" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɨ</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="12">
         <v>618</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="2" t="str">
+      <c r="F36" s="10"/>
+      <c r="G36" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɪ</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="12">
         <v>669</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="2" t="str">
+      <c r="F37" s="10"/>
+      <c r="G37" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʝ</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="12">
         <v>621</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="2" t="str">
+      <c r="F38" s="10"/>
+      <c r="G38" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɭ</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="12">
         <v>620</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="2" t="str">
+      <c r="F39" s="10"/>
+      <c r="G39" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɬ</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="12">
         <v>619</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="2" t="str">
+      <c r="F40" s="10"/>
+      <c r="G40" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɫ</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="12">
         <v>622</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="2" t="str">
+      <c r="F41" s="10"/>
+      <c r="G41" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɮ</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="12">
         <v>671</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="G42" s="2" t="str">
+      <c r="F42" s="10"/>
+      <c r="G42" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʟ</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="12">
         <v>625</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="12">
         <v>271</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G43" s="2" t="str">
+      <c r="F43" s="10"/>
+      <c r="G43" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɱ</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="12">
         <v>623</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="2" t="str">
+      <c r="F44" s="10"/>
+      <c r="G44" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɯ</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="12">
         <v>624</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="12">
         <v>270</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G45" s="2" t="str">
+      <c r="F45" s="10"/>
+      <c r="G45" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɰ</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="12">
         <v>331</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G46" s="2" t="str">
+      <c r="F46" s="10"/>
+      <c r="G46" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ŋ</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="12">
         <v>627</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="12">
         <v>273</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="2" t="str">
+      <c r="F47" s="10"/>
+      <c r="G47" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɳ</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="12">
         <v>626</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="12">
         <v>272</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="2" t="str">
+      <c r="F48" s="10"/>
+      <c r="G48" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɲ</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="12">
         <v>628</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="12">
         <v>274</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="2" t="str">
+      <c r="F49" s="10"/>
+      <c r="G49" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɴ</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="12">
         <v>248</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="2" t="str">
+      <c r="F50" s="10"/>
+      <c r="G50" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ø</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="12">
         <v>629</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="12">
         <v>275</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="2" t="str">
+      <c r="F51" s="10"/>
+      <c r="G51" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɵ</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="12">
         <v>632</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="12">
         <v>278</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G52" s="2" t="str">
+      <c r="F52" s="10"/>
+      <c r="G52" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɸ</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="12">
         <v>952</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="2" t="str">
+      <c r="F53" s="10"/>
+      <c r="G53" s="13" t="str">
         <f t="shared" si="2"/>
         <v>θ</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="12">
         <v>339</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="12">
         <v>153</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="G54" s="2" t="str">
+      <c r="F54" s="10"/>
+      <c r="G54" s="13" t="str">
         <f t="shared" si="2"/>
         <v>œ</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="12">
         <v>630</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="12">
         <v>276</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G55" s="2" t="str">
+      <c r="F55" s="10"/>
+      <c r="G55" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɶ</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="12">
         <v>664</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="12">
         <v>298</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="2" t="str">
+      <c r="F56" s="10"/>
+      <c r="G56" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʘ</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="12">
         <v>633</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="12">
         <v>279</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G57" s="2" t="str">
+      <c r="F57" s="10"/>
+      <c r="G57" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɹ</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="12">
         <v>634</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="2" t="str">
+      <c r="F58" s="10"/>
+      <c r="G58" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɺ</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="12">
         <v>638</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G59" s="2" t="str">
+      <c r="F59" s="10"/>
+      <c r="G59" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɾ</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="12">
         <v>635</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="2" t="str">
+      <c r="F60" s="10"/>
+      <c r="G60" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɻ</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="12">
         <v>640</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="12">
         <v>280</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G61" s="2" t="str">
+      <c r="F61" s="10"/>
+      <c r="G61" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʀ</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="12">
         <v>641</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="12">
         <v>281</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G62" s="2" t="str">
+      <c r="F62" s="10"/>
+      <c r="G62" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʁ</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="12">
         <v>637</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="2" t="str">
+      <c r="F63" s="10"/>
+      <c r="G63" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɽ</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="12">
         <v>642</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="12">
         <v>282</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G64" s="2" t="str">
+      <c r="F64" s="10"/>
+      <c r="G64" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʂ</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="12">
         <v>643</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="12">
         <v>283</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G65" s="2" t="str">
+      <c r="F65" s="10"/>
+      <c r="G65" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʃ</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="12">
         <v>648</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="12">
         <v>288</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G66" s="2" t="str">
+      <c r="F66" s="10"/>
+      <c r="G66" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʈ</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="12">
         <v>679</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="2" t="str">
+      <c r="F67" s="10"/>
+      <c r="G67" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʧ</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="12">
         <v>649</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="12">
         <v>289</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G68" s="2" t="str">
+      <c r="F68" s="10"/>
+      <c r="G68" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʉ</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="12">
         <v>650</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="2" t="str">
+      <c r="F69" s="10"/>
+      <c r="G69" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʊ</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="12">
         <v>651</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G70" s="2" t="str">
+      <c r="F70" s="10"/>
+      <c r="G70" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʋ</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="12">
         <v>11377</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="2" t="str">
+      <c r="F71" s="10"/>
+      <c r="G71" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ⱱ</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="12">
         <v>652</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G72" s="2" t="str">
+      <c r="F72" s="10"/>
+      <c r="G72" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʌ</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="12">
         <v>611</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="12">
         <v>263</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G73" s="2" t="str">
+      <c r="F73" s="10"/>
+      <c r="G73" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɣ</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="12">
         <v>612</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="12">
         <v>264</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G74" s="2" t="str">
+      <c r="F74" s="10"/>
+      <c r="G74" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ɤ</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="12">
         <v>653</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G75" s="2" t="str">
+      <c r="F75" s="10"/>
+      <c r="G75" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʍ</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="12">
         <v>967</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G76" s="2" t="str">
+      <c r="F76" s="10"/>
+      <c r="G76" s="13" t="str">
         <f t="shared" si="2"/>
         <v>χ</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="12">
         <v>654</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G77" s="2" t="str">
+      <c r="F77" s="10"/>
+      <c r="G77" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʎ</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="12">
         <v>655</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G78" s="2" t="str">
+      <c r="F78" s="10"/>
+      <c r="G78" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʏ</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="12">
         <v>657</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="12">
         <v>291</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G79" s="2" t="str">
+      <c r="F79" s="10"/>
+      <c r="G79" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʑ</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="12">
         <v>656</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="12">
         <v>290</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="2" t="str">
+      <c r="F80" s="10"/>
+      <c r="G80" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʐ</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="12">
         <v>658</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="12">
         <v>292</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="2" t="str">
+      <c r="F81" s="10"/>
+      <c r="G81" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʒ</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="12">
         <v>660</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="12">
         <v>294</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G82" s="2" t="str">
+      <c r="F82" s="10"/>
+      <c r="G82" s="13" t="str">
         <f t="shared" si="2"/>
         <v>ʔ</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="12">
         <v>673</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="2" t="str">
+      <c r="F83" s="10"/>
+      <c r="G83" s="13" t="str">
         <f t="shared" ref="G83:G89" si="3">_xlfn.UNICHAR(C83)</f>
         <v>ʡ</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="12">
         <v>661</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="12">
         <v>295</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="2" t="str">
+      <c r="F84" s="10"/>
+      <c r="G84" s="13" t="str">
         <f t="shared" si="3"/>
         <v>ʕ</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="12">
         <v>674</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="2" t="str">
+      <c r="F85" s="10"/>
+      <c r="G85" s="13" t="str">
         <f t="shared" si="3"/>
         <v>ʢ</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="12">
         <v>448</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="2" t="str">
+      <c r="F86" s="10"/>
+      <c r="G86" s="13" t="str">
         <f t="shared" si="3"/>
         <v>ǀ</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="12">
         <v>449</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G87" s="2" t="str">
+      <c r="F87" s="10"/>
+      <c r="G87" s="13" t="str">
         <f t="shared" si="3"/>
         <v>ǁ</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="12">
         <v>450</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="2" t="str">
+      <c r="F88" s="10"/>
+      <c r="G88" s="13" t="str">
         <f t="shared" si="3"/>
         <v>ǂ</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="12">
         <v>451</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G89" s="2" t="str">
+      <c r="F89" s="10"/>
+      <c r="G89" s="13" t="str">
         <f t="shared" si="3"/>
         <v>ǃ</v>
       </c>
@@ -15081,341 +16150,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6471A04-BF28-4C0C-BD4A-CC62054AA1F8}">
-  <dimension ref="B2:I29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="8" customWidth="1"/>
-    <col min="2" max="4" width="19.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="8" customWidth="1"/>
-    <col min="6" max="9" width="11.625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="8">
-        <v>660</v>
-      </c>
-      <c r="D3" s="8" t="str">
-        <f>_xlfn.UNICHAR(C3)</f>
-        <v>ʔ</v>
-      </c>
-      <c r="F3" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>ã</v>
-      </c>
-      <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G9" si="0" xml:space="preserve"> _xlfn.CONCAT(F3, _xlfn.UNICHAR(660))</f>
-        <v>ãʔ</v>
-      </c>
-      <c r="H3" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("a")</f>
-        <v>a</v>
-      </c>
-      <c r="I3" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(H3, _xlfn.UNICHAR(660))</f>
-        <v>aʔ</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="8">
-        <v>596</v>
-      </c>
-      <c r="D4" s="8" t="str">
-        <f>_xlfn.UNICHAR(C4)</f>
-        <v>ɔ</v>
-      </c>
-      <c r="F4" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("i", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>ĩ</v>
-      </c>
-      <c r="G4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ĩʔ</v>
-      </c>
-      <c r="H4" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("i")</f>
-        <v>i</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(H4, _xlfn.UNICHAR(660))</f>
-        <v>iʔ</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="8">
-        <v>601</v>
-      </c>
-      <c r="D5" s="8" t="str">
-        <f>_xlfn.UNICHAR(C5)</f>
-        <v>ə</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("u", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>ũ</v>
-      </c>
-      <c r="G5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ũʔ</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="8">
-        <v>331</v>
-      </c>
-      <c r="D6" s="8" t="str">
-        <f>_xlfn.UNICHAR(C6)</f>
-        <v>ŋ</v>
-      </c>
-      <c r="F6" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(_xlfn.UNICHAR(603), _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>ɛ̃</v>
-      </c>
-      <c r="G6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ɛ̃ʔ</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("e", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>ẽ</v>
-      </c>
-      <c r="G7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ẽʔ</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($D$4, _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>ɔ̃</v>
-      </c>
-      <c r="G8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>ɔ̃ʔ</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("o", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>õ</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>õʔ</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="8">
-        <f xml:space="preserve"> HEX2DEC(B10)</f>
-        <v>771</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(C10))</f>
-        <v>ã</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ai", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>aĩ</v>
-      </c>
-      <c r="G11" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F11, _xlfn.UNICHAR(660))</f>
-        <v>aĩʔ</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("a", _xlfn.UNICHAR(HEX2DEC("0303")), "u")</f>
-        <v>ãu</v>
-      </c>
-      <c r="G12" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F12, _xlfn.UNICHAR(660))</f>
-        <v>ãuʔ</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("io", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>iõ</v>
-      </c>
-      <c r="G14" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F14, _xlfn.UNICHAR(660))</f>
-        <v>iõʔ</v>
-      </c>
-      <c r="H14" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("io")</f>
-        <v>io</v>
-      </c>
-      <c r="I14" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(H14, _xlfn.UNICHAR(660))</f>
-        <v>ioʔ</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("i", _xlfn.UNICHAR(596), _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>iɔ̃</v>
-      </c>
-      <c r="G15" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F15, _xlfn.UNICHAR(660))</f>
-        <v>iɔ̃ʔ</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("iu", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>iũ</v>
-      </c>
-      <c r="G16" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F16, _xlfn.UNICHAR(660))</f>
-        <v>iũʔ</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ia", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>iã</v>
-      </c>
-      <c r="G17" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F17, _xlfn.UNICHAR(660))</f>
-        <v>iãʔ</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ia", _xlfn.UNICHAR(HEX2DEC("0303")), "u")</f>
-        <v>iãu</v>
-      </c>
-      <c r="G18" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F18, _xlfn.UNICHAR(660))</f>
-        <v>iãuʔ</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ia", $D$6)</f>
-        <v>iaŋ</v>
-      </c>
-      <c r="G19" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F19, _xlfn.UNICHAR(660))</f>
-        <v>iaŋʔ</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ou", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>oũ</v>
-      </c>
-      <c r="G21" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F21, _xlfn.UNICHAR(660))</f>
-        <v>oũʔ</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "m")</f>
-        <v>ɔm</v>
-      </c>
-      <c r="G22" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "p")</f>
-        <v>ɔp</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($D$4, $D$6)</f>
-        <v>ɔŋ</v>
-      </c>
-      <c r="G23" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT($D$4, "k")</f>
-        <v>ɔk</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ui", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>uĩ</v>
-      </c>
-      <c r="G25" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F25, _xlfn.UNICHAR(660))</f>
-        <v>uĩʔ</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ua", _xlfn.UNICHAR(HEX2DEC("0303")))</f>
-        <v>uã</v>
-      </c>
-      <c r="G26" s="10" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F26, _xlfn.UNICHAR(660))</f>
-        <v>uãʔ</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ua", D6)</f>
-        <v>uaŋ</v>
-      </c>
-      <c r="G27" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ua", "k")</f>
-        <v>uak</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ua", _xlfn.UNICHAR(HEX2DEC("0303")), "i")</f>
-        <v>uãi</v>
-      </c>
-      <c r="G28" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F28, _xlfn.UNICHAR(660))</f>
-        <v>uãiʔ</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT("ue", _xlfn.UNICHAR(HEX2DEC("0303")), "i")</f>
-        <v>uẽi</v>
-      </c>
-      <c r="G29" s="8" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(F29, _xlfn.UNICHAR(660))</f>
-        <v>uẽiʔ</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077FC8F3-46A8-4BAB-BC47-7AFB2E0568AC}">
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="32.25" x14ac:dyDescent="0.25"/>
@@ -15425,16 +16165,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -15476,7 +16216,7 @@
       <c r="D5" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15585,7 +16325,7 @@
       <c r="C13" s="3">
         <v>736</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -15599,7 +16339,7 @@
       <c r="C14" s="3">
         <v>740</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>20000</v>
       </c>
       <c r="E14" s="3" t="s">
